--- a/resources/example_sds_dataset/subjects.xlsx
+++ b/resources/example_sds_dataset/subjects.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,12 +579,12 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30y</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -594,32 +594,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>RRID:RGD_10395233</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>middle adulthood</t>
+          <t>Prime Adult Stage</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Null</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Breast Cancer Society</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -642,18 +642,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub-3</t>
+          <t>sub-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20y</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -663,32 +663,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>RRID:RGD_16986544</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>middle adulthood</t>
+          <t>Prime Adult Stage</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Null</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Breast Cancer Society</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -708,75 +708,6 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sub-2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>experimental</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>041y</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>RRID:RGD_65245738</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>middle adulthood</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Null</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Breast Cancer Society</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
